--- a/DigitalSignageAdapter/App_Data/ReportTemplate.xlsx
+++ b/DigitalSignageAdapter/App_Data/ReportTemplate.xlsx
@@ -24,7 +24,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <x:connections xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:connection id="1" name="Veza" type="4" refreshedVersion="6">
-    <x:webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://localhost:51870/Excel/HtmlData?LineId=1533&amp;BusinessId=434745&amp;TimeEntryType=Days&amp;Days=1&amp;From=2017-03-16T00%3A00%3A00&amp;To=2017-03-16T23%3A53%3A00&amp;TimeZoneOffset=1"/>
+    <x:webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://localhost:51870/Excel/HtmlData?BusinessId=5&amp;EmployeeId=1073&amp;TimeEntryType=Days&amp;Days=1&amp;From=2017-03-07T00%3A00%3A00&amp;To=2017-03-07T16%3A00%3A00&amp;TimeZoneOffset=2"/>
   </x:connection>
 </x:connections>
 </file>

--- a/DigitalSignageAdapter/App_Data/ReportTemplate.xlsx
+++ b/DigitalSignageAdapter/App_Data/ReportTemplate.xlsx
@@ -24,7 +24,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <x:connections xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:connection id="1" name="Veza" type="4" refreshedVersion="6">
-    <x:webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://localhost:51870/Excel/HtmlData?BusinessId=5&amp;EmployeeId=1073&amp;TimeEntryType=Days&amp;Days=1&amp;From=2017-03-07T00%3A00%3A00&amp;To=2017-03-07T16%3A00%3A00&amp;TimeZoneOffset=2"/>
+    <x:webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://localhost:51870/Excel/HtmlData?BusinessId=3&amp;LineId=1&amp;EmployeeId=1063&amp;TimeEntryType=FromTo&amp;Days=1&amp;From=2017-11-01T00%3A00%3A00&amp;To=2017-11-02T00%3A34%3A00&amp;TimeZoneOffset=1"/>
   </x:connection>
 </x:connections>
 </file>

--- a/DigitalSignageAdapter/App_Data/ReportTemplate.xlsx
+++ b/DigitalSignageAdapter/App_Data/ReportTemplate.xlsx
@@ -24,7 +24,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <x:connections xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:connection id="1" name="Veza" type="4" refreshedVersion="6">
-    <x:webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://localhost:51870/Excel/HtmlData?BusinessId=3&amp;LineId=1&amp;EmployeeId=1063&amp;TimeEntryType=FromTo&amp;Days=1&amp;From=2017-11-01T00%3A00%3A00&amp;To=2017-11-02T00%3A34%3A00&amp;TimeZoneOffset=1"/>
+    <x:webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://localhost:51870/Excel/HtmlData?BusinessId=10&amp;LineId=15&amp;TimeEntryType=Days&amp;Days=1&amp;From=2017-04-03T00%3A00%3A00&amp;To=2017-04-03T16%3A00%3A00&amp;TimeZoneOffset=1"/>
   </x:connection>
 </x:connections>
 </file>
